--- a/Financials/Quarterly/BBVA_QTR_FIN.xlsx
+++ b/Financials/Quarterly/BBVA_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115CD941-77CE-476A-9511-A26BE1C2328F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BBVA" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>BBVA</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,90 +689,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8578200</v>
+        <v>9108300</v>
       </c>
       <c r="E8" s="3">
-        <v>8450300</v>
+        <v>8082800</v>
       </c>
       <c r="F8" s="3">
-        <v>9196800</v>
+        <v>8199500</v>
       </c>
       <c r="G8" s="3">
-        <v>8399800</v>
+        <v>8077200</v>
       </c>
       <c r="H8" s="3">
-        <v>8591100</v>
+        <v>8790800</v>
       </c>
       <c r="I8" s="3">
+        <v>8029000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8211800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8200200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8301200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8139200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +812,14 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +847,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +866,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +897,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +932,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,37 +967,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-349800</v>
+        <v>-343300</v>
       </c>
       <c r="E15" s="3">
-        <v>-361500</v>
+        <v>-334400</v>
       </c>
       <c r="F15" s="3">
-        <v>-388500</v>
+        <v>-334400</v>
       </c>
       <c r="G15" s="3">
-        <v>-405000</v>
+        <v>-345600</v>
       </c>
       <c r="H15" s="3">
-        <v>-420200</v>
+        <v>-371400</v>
       </c>
       <c r="I15" s="3">
+        <v>-387100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-401700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-415500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-427300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1018,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4386500</v>
+        <v>5345200</v>
       </c>
       <c r="E17" s="3">
-        <v>4401800</v>
+        <v>4452100</v>
       </c>
       <c r="F17" s="3">
-        <v>4723400</v>
+        <v>4192900</v>
       </c>
       <c r="G17" s="3">
-        <v>4387700</v>
+        <v>4207500</v>
       </c>
       <c r="H17" s="3">
-        <v>4507400</v>
+        <v>4514900</v>
       </c>
       <c r="I17" s="3">
+        <v>4194000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4308400</v>
+      </c>
+      <c r="K17" s="3">
         <v>4239800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3900600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4235100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4191700</v>
+        <v>3763200</v>
       </c>
       <c r="E18" s="3">
-        <v>4048500</v>
+        <v>3630800</v>
       </c>
       <c r="F18" s="3">
-        <v>4473400</v>
+        <v>4006600</v>
       </c>
       <c r="G18" s="3">
-        <v>4012100</v>
+        <v>3869700</v>
       </c>
       <c r="H18" s="3">
-        <v>4083700</v>
+        <v>4275900</v>
       </c>
       <c r="I18" s="3">
+        <v>3835000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3903400</v>
+      </c>
+      <c r="K18" s="3">
         <v>3960400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4400600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3904100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1103,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1602300</v>
+        <v>-2006100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1422700</v>
+        <v>-898700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3398200</v>
+        <v>-1531500</v>
       </c>
       <c r="G20" s="3">
-        <v>-1685600</v>
+        <v>-1359900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1773600</v>
+        <v>-3248200</v>
       </c>
       <c r="I20" s="3">
+        <v>-1611200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1695300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1536500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2892300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1889800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2940400</v>
+        <v>2099200</v>
       </c>
       <c r="E21" s="3">
-        <v>2986200</v>
+        <v>3065300</v>
       </c>
       <c r="F21" s="3">
-        <v>1462600</v>
+        <v>2810600</v>
       </c>
       <c r="G21" s="3">
-        <v>2731500</v>
+        <v>2854300</v>
       </c>
       <c r="H21" s="3">
-        <v>2730300</v>
+        <v>1398000</v>
       </c>
       <c r="I21" s="3">
+        <v>2610900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2609700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2839400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1936800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2450900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1204,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2589400</v>
+        <v>1757000</v>
       </c>
       <c r="E23" s="3">
-        <v>2625800</v>
+        <v>2732000</v>
       </c>
       <c r="F23" s="3">
-        <v>1075200</v>
+        <v>2475100</v>
       </c>
       <c r="G23" s="3">
-        <v>2326500</v>
+        <v>2509900</v>
       </c>
       <c r="H23" s="3">
-        <v>2310100</v>
+        <v>1027700</v>
       </c>
       <c r="I23" s="3">
+        <v>2223800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2208100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2423900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1508300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2014300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>706600</v>
+        <v>472400</v>
       </c>
       <c r="E24" s="3">
-        <v>717200</v>
+        <v>741600</v>
       </c>
       <c r="F24" s="3">
-        <v>585700</v>
+        <v>675400</v>
       </c>
       <c r="G24" s="3">
-        <v>645600</v>
+        <v>685500</v>
       </c>
       <c r="H24" s="3">
-        <v>642100</v>
+        <v>559900</v>
       </c>
       <c r="I24" s="3">
+        <v>617100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>613700</v>
+      </c>
+      <c r="K24" s="3">
         <v>672600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>368600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1309,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1882800</v>
+        <v>1284700</v>
       </c>
       <c r="E26" s="3">
-        <v>1908600</v>
+        <v>1990400</v>
       </c>
       <c r="F26" s="3">
-        <v>489500</v>
+        <v>1799700</v>
       </c>
       <c r="G26" s="3">
-        <v>1680900</v>
+        <v>1824400</v>
       </c>
       <c r="H26" s="3">
-        <v>1668000</v>
+        <v>467900</v>
       </c>
       <c r="I26" s="3">
+        <v>1606700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1594300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1751300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1139800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1468400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1536500</v>
+        <v>769700</v>
       </c>
       <c r="E27" s="3">
-        <v>1572900</v>
+        <v>1878200</v>
       </c>
       <c r="F27" s="3">
-        <v>-271200</v>
+        <v>1468700</v>
       </c>
       <c r="G27" s="3">
-        <v>1341700</v>
+        <v>1503500</v>
       </c>
       <c r="H27" s="3">
-        <v>1299400</v>
+        <v>-259200</v>
       </c>
       <c r="I27" s="3">
+        <v>1282400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1407400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>490700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1132700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1414,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1449,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1484,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1519,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1602300</v>
+        <v>2006100</v>
       </c>
       <c r="E32" s="3">
-        <v>1422700</v>
+        <v>898700</v>
       </c>
       <c r="F32" s="3">
-        <v>3398200</v>
+        <v>1531500</v>
       </c>
       <c r="G32" s="3">
-        <v>1685600</v>
+        <v>1359900</v>
       </c>
       <c r="H32" s="3">
-        <v>1773600</v>
+        <v>3248200</v>
       </c>
       <c r="I32" s="3">
+        <v>1611200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1695300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1536500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2892300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1889800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1536500</v>
+        <v>769700</v>
       </c>
       <c r="E33" s="3">
-        <v>1572900</v>
+        <v>1878200</v>
       </c>
       <c r="F33" s="3">
-        <v>-271200</v>
+        <v>1468700</v>
       </c>
       <c r="G33" s="3">
-        <v>1341700</v>
+        <v>1503500</v>
       </c>
       <c r="H33" s="3">
-        <v>1299400</v>
+        <v>-259200</v>
       </c>
       <c r="I33" s="3">
+        <v>1282400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1407400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>490700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1132700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1624,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1536500</v>
+        <v>769700</v>
       </c>
       <c r="E35" s="3">
-        <v>1572900</v>
+        <v>1878200</v>
       </c>
       <c r="F35" s="3">
-        <v>-271200</v>
+        <v>1468700</v>
       </c>
       <c r="G35" s="3">
-        <v>1341700</v>
+        <v>1503500</v>
       </c>
       <c r="H35" s="3">
-        <v>1299400</v>
+        <v>-259200</v>
       </c>
       <c r="I35" s="3">
+        <v>1282400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1407400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>490700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1132700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1718,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,66 +1733,80 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>63821200</v>
+        <v>79999000</v>
       </c>
       <c r="E41" s="3">
-        <v>71506200</v>
+        <v>67493300</v>
       </c>
       <c r="F41" s="3">
-        <v>89492400</v>
+        <v>61003700</v>
       </c>
       <c r="G41" s="3">
-        <v>113481600</v>
+        <v>68349400</v>
       </c>
       <c r="H41" s="3">
-        <v>85452200</v>
+        <v>85541600</v>
       </c>
       <c r="I41" s="3">
+        <v>108471700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>81679800</v>
+      </c>
+      <c r="K41" s="3">
         <v>110202000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>94252200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>83864000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>191482500</v>
+        <v>174799300</v>
       </c>
       <c r="E42" s="3">
-        <v>190705400</v>
+        <v>180865900</v>
       </c>
       <c r="F42" s="3">
-        <v>163586900</v>
+        <v>183029100</v>
       </c>
       <c r="G42" s="3">
-        <v>179776000</v>
+        <v>182286300</v>
       </c>
       <c r="H42" s="3">
-        <v>182828000</v>
+        <v>156365000</v>
       </c>
       <c r="I42" s="3">
+        <v>171839500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>174756700</v>
+      </c>
+      <c r="K42" s="3">
         <v>195521500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>196691800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>204585700</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1834,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1869,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1904,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,95 +1939,119 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1725500</v>
+        <v>1770500</v>
       </c>
       <c r="E47" s="3">
-        <v>1637500</v>
+        <v>1090600</v>
       </c>
       <c r="F47" s="3">
-        <v>1864000</v>
+        <v>1649300</v>
       </c>
       <c r="G47" s="3">
-        <v>1859300</v>
+        <v>1565200</v>
       </c>
       <c r="H47" s="3">
-        <v>1340500</v>
+        <v>1781700</v>
       </c>
       <c r="I47" s="3">
+        <v>1777200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1281300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1352200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>898000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>881500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7906800</v>
+        <v>8110900</v>
       </c>
       <c r="E48" s="3">
-        <v>8155600</v>
+        <v>7502700</v>
       </c>
       <c r="F48" s="3">
-        <v>8440900</v>
+        <v>7557700</v>
       </c>
       <c r="G48" s="3">
-        <v>9344700</v>
+        <v>7795600</v>
       </c>
       <c r="H48" s="3">
-        <v>9638200</v>
+        <v>8068200</v>
       </c>
       <c r="I48" s="3">
+        <v>8932200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9212700</v>
+      </c>
+      <c r="K48" s="3">
         <v>10493900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10496200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11116000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9828300</v>
+        <v>9328200</v>
       </c>
       <c r="E49" s="3">
-        <v>9624100</v>
+        <v>9214900</v>
       </c>
       <c r="F49" s="3">
-        <v>9935100</v>
+        <v>9394400</v>
       </c>
       <c r="G49" s="3">
-        <v>10262600</v>
+        <v>9199200</v>
       </c>
       <c r="H49" s="3">
-        <v>10619500</v>
+        <v>9496500</v>
       </c>
       <c r="I49" s="3">
+        <v>9809600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10150600</v>
+      </c>
+      <c r="K49" s="3">
         <v>11222800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>11486900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>11154700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2079,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2114,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45573200</v>
+        <v>19429500</v>
       </c>
       <c r="E52" s="3">
-        <v>45468700</v>
+        <v>23547200</v>
       </c>
       <c r="F52" s="3">
-        <v>45283200</v>
+        <v>43561300</v>
       </c>
       <c r="G52" s="3">
-        <v>21316400</v>
+        <v>43461400</v>
       </c>
       <c r="H52" s="3">
-        <v>22293000</v>
+        <v>43284100</v>
       </c>
       <c r="I52" s="3">
+        <v>20375300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>21308800</v>
+      </c>
+      <c r="K52" s="3">
         <v>22578200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>23469200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>22457300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2184,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>809496900</v>
+        <v>759238300</v>
       </c>
       <c r="E54" s="3">
-        <v>804577500</v>
+        <v>750594500</v>
       </c>
       <c r="F54" s="3">
-        <v>809998200</v>
+        <v>773760200</v>
       </c>
       <c r="G54" s="3">
-        <v>810864400</v>
+        <v>769057900</v>
       </c>
       <c r="H54" s="3">
-        <v>824518200</v>
+        <v>774239300</v>
       </c>
       <c r="I54" s="3">
+        <v>775067300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>788118300</v>
+      </c>
+      <c r="K54" s="3">
         <v>844195900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>859059900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>850574400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2238,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,37 +2253,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5850300</v>
+        <v>6337000</v>
       </c>
       <c r="E57" s="3">
-        <v>6893800</v>
+        <v>5994800</v>
       </c>
       <c r="F57" s="3">
-        <v>6529900</v>
+        <v>5592000</v>
       </c>
       <c r="G57" s="3">
-        <v>6297500</v>
+        <v>6589400</v>
       </c>
       <c r="H57" s="3">
-        <v>6191800</v>
+        <v>6241600</v>
       </c>
       <c r="I57" s="3">
+        <v>6019500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5918500</v>
+      </c>
+      <c r="K57" s="3">
         <v>8067600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7665000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7767100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2018,37 +2319,49 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1676200</v>
+        <v>1380000</v>
       </c>
       <c r="E59" s="3">
-        <v>1522400</v>
+        <v>1008700</v>
       </c>
       <c r="F59" s="3">
-        <v>1307600</v>
+        <v>1602200</v>
       </c>
       <c r="G59" s="3">
-        <v>1807700</v>
+        <v>1455200</v>
       </c>
       <c r="H59" s="3">
-        <v>1177300</v>
+        <v>1249900</v>
       </c>
       <c r="I59" s="3">
+        <v>1727900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1125400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1869900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2114000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1130400</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,66 +2389,84 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73185900</v>
+        <v>71773700</v>
       </c>
       <c r="E61" s="3">
-        <v>71445100</v>
+        <v>69588100</v>
       </c>
       <c r="F61" s="3">
-        <v>75024100</v>
+        <v>69955000</v>
       </c>
       <c r="G61" s="3">
-        <v>81327400</v>
+        <v>68291000</v>
       </c>
       <c r="H61" s="3">
-        <v>81595100</v>
+        <v>71712000</v>
       </c>
       <c r="I61" s="3">
+        <v>77737100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>77992900</v>
+      </c>
+      <c r="K61" s="3">
         <v>85500300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>89649700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>89924400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30661100</v>
+        <v>9893700</v>
       </c>
       <c r="E62" s="3">
-        <v>31077800</v>
+        <v>10102400</v>
       </c>
       <c r="F62" s="3">
-        <v>31526200</v>
+        <v>29307500</v>
       </c>
       <c r="G62" s="3">
-        <v>12328500</v>
+        <v>29705800</v>
       </c>
       <c r="H62" s="3">
-        <v>12965900</v>
+        <v>30134400</v>
       </c>
       <c r="I62" s="3">
+        <v>11784300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>12393500</v>
+      </c>
+      <c r="K62" s="3">
         <v>14271200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>14629200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14387400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2494,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2529,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2564,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>755794000</v>
+        <v>706381300</v>
       </c>
       <c r="E66" s="3">
-        <v>751484900</v>
+        <v>698986300</v>
       </c>
       <c r="F66" s="3">
-        <v>755599100</v>
+        <v>722428000</v>
       </c>
       <c r="G66" s="3">
-        <v>755306800</v>
+        <v>718309200</v>
       </c>
       <c r="H66" s="3">
-        <v>768372500</v>
+        <v>722241800</v>
       </c>
       <c r="I66" s="3">
+        <v>721962400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>734451300</v>
+      </c>
+      <c r="K66" s="3">
         <v>787801400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>803463600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>794739800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2618,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2649,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2684,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2719,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2754,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33716500</v>
+        <v>31734400</v>
       </c>
       <c r="E72" s="3">
-        <v>32128400</v>
+        <v>34040100</v>
       </c>
       <c r="F72" s="3">
-        <v>33980600</v>
+        <v>32228000</v>
       </c>
       <c r="G72" s="3">
-        <v>34029900</v>
+        <v>30710000</v>
       </c>
       <c r="H72" s="3">
-        <v>32689400</v>
+        <v>30401400</v>
       </c>
       <c r="I72" s="3">
+        <v>32527600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>31246300</v>
+      </c>
+      <c r="K72" s="3">
         <v>31554400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>31805600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>31054300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2824,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2859,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2894,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>53703000</v>
+        <v>52856900</v>
       </c>
       <c r="E76" s="3">
-        <v>53092600</v>
+        <v>51608200</v>
       </c>
       <c r="F76" s="3">
-        <v>54399100</v>
+        <v>51332200</v>
       </c>
       <c r="G76" s="3">
-        <v>55557600</v>
+        <v>50748700</v>
       </c>
       <c r="H76" s="3">
-        <v>56145700</v>
+        <v>51997500</v>
       </c>
       <c r="I76" s="3">
+        <v>53104900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>53667000</v>
+      </c>
+      <c r="K76" s="3">
         <v>56394500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>55596300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>55834600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2964,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1536500</v>
+        <v>769700</v>
       </c>
       <c r="E81" s="3">
-        <v>1572900</v>
+        <v>1878200</v>
       </c>
       <c r="F81" s="3">
-        <v>-271200</v>
+        <v>1468700</v>
       </c>
       <c r="G81" s="3">
-        <v>1341700</v>
+        <v>1503500</v>
       </c>
       <c r="H81" s="3">
-        <v>1299400</v>
+        <v>-259200</v>
       </c>
       <c r="I81" s="3">
+        <v>1282400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1407400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>490700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1132700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3058,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>351000</v>
+        <v>342200</v>
       </c>
       <c r="E83" s="3">
-        <v>360400</v>
+        <v>333200</v>
       </c>
       <c r="F83" s="3">
-        <v>387400</v>
+        <v>335500</v>
       </c>
       <c r="G83" s="3">
-        <v>405000</v>
+        <v>344500</v>
       </c>
       <c r="H83" s="3">
-        <v>420200</v>
+        <v>370300</v>
       </c>
       <c r="I83" s="3">
+        <v>387100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>401700</v>
+      </c>
+      <c r="K83" s="3">
         <v>415500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>428400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>436700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3124,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3159,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3194,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3229,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3264,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7755400</v>
+        <v>9732100</v>
       </c>
       <c r="E89" s="3">
-        <v>1256000</v>
+        <v>6201200</v>
       </c>
       <c r="F89" s="3">
-        <v>5380700</v>
+        <v>-7413000</v>
       </c>
       <c r="G89" s="3">
-        <v>-967200</v>
+        <v>1200500</v>
       </c>
       <c r="H89" s="3">
-        <v>5763400</v>
+        <v>5143200</v>
       </c>
       <c r="I89" s="3">
+        <v>-924500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5509000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7763600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>9182700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4989900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3318,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-313400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-450700</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-457800</v>
+        <v>-86400</v>
       </c>
       <c r="G91" s="3">
-        <v>-327500</v>
+        <v>-187400</v>
       </c>
       <c r="H91" s="3">
-        <v>-676100</v>
+        <v>-166100</v>
       </c>
       <c r="I91" s="3">
+        <v>-517200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-126800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-112700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1055300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-819300</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3384,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3419,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-147900</v>
+        <v>4158100</v>
       </c>
       <c r="E94" s="3">
-        <v>47000</v>
+        <v>4371300</v>
       </c>
       <c r="F94" s="3">
-        <v>2135200</v>
+        <v>-141400</v>
       </c>
       <c r="G94" s="3">
-        <v>-423700</v>
+        <v>44900</v>
       </c>
       <c r="H94" s="3">
-        <v>1368700</v>
+        <v>2040900</v>
       </c>
       <c r="I94" s="3">
+        <v>-405000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1308200</v>
+      </c>
+      <c r="K94" s="3">
         <v>326300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1783000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-441400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3473,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1313500</v>
+        <v>-1110800</v>
       </c>
       <c r="E96" s="3">
-        <v>-142000</v>
+        <v>138000</v>
       </c>
       <c r="F96" s="3">
-        <v>-833400</v>
+        <v>-1255500</v>
       </c>
       <c r="G96" s="3">
-        <v>-127900</v>
+        <v>-135800</v>
       </c>
       <c r="H96" s="3">
-        <v>-293500</v>
+        <v>-796600</v>
       </c>
       <c r="I96" s="3">
+        <v>-122300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-280500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-738300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-197200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-726600</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3539,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3574,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3609,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1955600</v>
+        <v>-958200</v>
       </c>
       <c r="E100" s="3">
-        <v>-41100</v>
+        <v>-2846500</v>
       </c>
       <c r="F100" s="3">
-        <v>694900</v>
+        <v>-1869200</v>
       </c>
       <c r="G100" s="3">
-        <v>567000</v>
+        <v>-39300</v>
       </c>
       <c r="H100" s="3">
-        <v>-316900</v>
+        <v>664200</v>
       </c>
       <c r="I100" s="3">
+        <v>541900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-302900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1060000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-757100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1300600</v>
+        <v>2705100</v>
       </c>
       <c r="E101" s="3">
-        <v>-1031800</v>
+        <v>-3278500</v>
       </c>
       <c r="F101" s="3">
-        <v>-2798400</v>
+        <v>-1243200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1199600</v>
+        <v>-986200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1049400</v>
+        <v>-2674800</v>
       </c>
       <c r="I101" s="3">
+        <v>-1146700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1003100</v>
+      </c>
+      <c r="K101" s="3">
         <v>39900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1322900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1428500</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11159400</v>
+        <v>15637200</v>
       </c>
       <c r="E102" s="3">
-        <v>230100</v>
+        <v>4447600</v>
       </c>
       <c r="F102" s="3">
-        <v>5412400</v>
+        <v>-10666800</v>
       </c>
       <c r="G102" s="3">
-        <v>-1055300</v>
+        <v>219900</v>
       </c>
       <c r="H102" s="3">
-        <v>4797400</v>
+        <v>5173500</v>
       </c>
       <c r="I102" s="3">
+        <v>-1008700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>4585600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8457300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8885700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2508400</v>
       </c>
     </row>

--- a/Financials/Quarterly/BBVA_QTR_FIN.xlsx
+++ b/Financials/Quarterly/BBVA_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115CD941-77CE-476A-9511-A26BE1C2328F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BBVA" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>BBVA</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,102 +654,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9108300</v>
+        <v>8531500</v>
       </c>
       <c r="E8" s="3">
-        <v>8082800</v>
+        <v>8686300</v>
       </c>
       <c r="F8" s="3">
-        <v>8199500</v>
+        <v>8528200</v>
       </c>
       <c r="G8" s="3">
-        <v>8077200</v>
+        <v>8913600</v>
       </c>
       <c r="H8" s="3">
+        <v>7910000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8024200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7902300</v>
+      </c>
+      <c r="K8" s="3">
         <v>8790800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>8029000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>8211800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>8200200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>8301200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>8139200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,8 +801,17 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +845,17 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +869,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,8 +907,17 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,8 +951,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -973,43 +995,61 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-343300</v>
+        <v>-442500</v>
       </c>
       <c r="E15" s="3">
-        <v>-334400</v>
+        <v>-435900</v>
       </c>
       <c r="F15" s="3">
-        <v>-334400</v>
+        <v>-431500</v>
       </c>
       <c r="G15" s="3">
-        <v>-345600</v>
+        <v>-336000</v>
       </c>
       <c r="H15" s="3">
+        <v>-327200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-327200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-333800</v>
+      </c>
+      <c r="K15" s="3">
         <v>-371400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>-387100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>-401700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>-415500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>-427300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,78 +1060,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5345200</v>
+        <v>4876200</v>
       </c>
       <c r="E17" s="3">
-        <v>4452100</v>
+        <v>4499600</v>
       </c>
       <c r="F17" s="3">
-        <v>4192900</v>
+        <v>4792800</v>
       </c>
       <c r="G17" s="3">
-        <v>4207500</v>
+        <v>5230900</v>
       </c>
       <c r="H17" s="3">
+        <v>4356900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4103200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4117500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4514900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>4194000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>4308400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>4239800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>3900600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>4235100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3763200</v>
+        <v>3655200</v>
       </c>
       <c r="E18" s="3">
-        <v>3630800</v>
+        <v>4186700</v>
       </c>
       <c r="F18" s="3">
-        <v>4006600</v>
+        <v>3735400</v>
       </c>
       <c r="G18" s="3">
-        <v>3869700</v>
+        <v>3682700</v>
       </c>
       <c r="H18" s="3">
+        <v>3553100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3921000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3784800</v>
+      </c>
+      <c r="K18" s="3">
         <v>4275900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>3835000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>3903400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>3960400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>4400600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>3904100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,78 +1166,99 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2006100</v>
+        <v>-1584400</v>
       </c>
       <c r="E20" s="3">
-        <v>-898700</v>
+        <v>-1887500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1531500</v>
+        <v>-1585500</v>
       </c>
       <c r="G20" s="3">
-        <v>-1359900</v>
+        <v>-1963200</v>
       </c>
       <c r="H20" s="3">
+        <v>-879500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1498800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1404300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3248200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-1611200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-1695300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-1536500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-2892300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-1889800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2099200</v>
+        <v>2513300</v>
       </c>
       <c r="E21" s="3">
-        <v>3065300</v>
+        <v>2736200</v>
       </c>
       <c r="F21" s="3">
-        <v>2810600</v>
+        <v>2580300</v>
       </c>
       <c r="G21" s="3">
-        <v>2854300</v>
+        <v>2054400</v>
       </c>
       <c r="H21" s="3">
+        <v>2999700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2750500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2717600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1398000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>2610900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>2609700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>2839400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>1936800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>2450900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,78 +1292,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1757000</v>
+        <v>2070800</v>
       </c>
       <c r="E23" s="3">
-        <v>2732000</v>
+        <v>2299200</v>
       </c>
       <c r="F23" s="3">
-        <v>2475100</v>
+        <v>2149900</v>
       </c>
       <c r="G23" s="3">
-        <v>2509900</v>
+        <v>1719500</v>
       </c>
       <c r="H23" s="3">
+        <v>2673600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2422200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2380500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1027700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>2223800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>2208100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>2423900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>1508300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>2014300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>472400</v>
+        <v>534700</v>
       </c>
       <c r="E24" s="3">
-        <v>741600</v>
+        <v>633500</v>
       </c>
       <c r="F24" s="3">
-        <v>675400</v>
+        <v>613800</v>
       </c>
       <c r="G24" s="3">
-        <v>685500</v>
+        <v>462300</v>
       </c>
       <c r="H24" s="3">
+        <v>725800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>661000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>677500</v>
+      </c>
+      <c r="K24" s="3">
         <v>559900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>617100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>613700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>672600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>368600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>545800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,78 +1424,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1284700</v>
+        <v>1536100</v>
       </c>
       <c r="E26" s="3">
-        <v>1990400</v>
+        <v>1665700</v>
       </c>
       <c r="F26" s="3">
-        <v>1799700</v>
+        <v>1536100</v>
       </c>
       <c r="G26" s="3">
-        <v>1824400</v>
+        <v>1257200</v>
       </c>
       <c r="H26" s="3">
+        <v>1947900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1761200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="K26" s="3">
         <v>467900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1606700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>1594300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>1751300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>1139800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1468400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>769700</v>
+        <v>1345100</v>
       </c>
       <c r="E27" s="3">
-        <v>1878200</v>
+        <v>1402100</v>
       </c>
       <c r="F27" s="3">
-        <v>1468700</v>
+        <v>1279200</v>
       </c>
       <c r="G27" s="3">
-        <v>1503500</v>
+        <v>753200</v>
       </c>
       <c r="H27" s="3">
+        <v>1838100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1437300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1414200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-259200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1282400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>1242000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>1407400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>490700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1132700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,8 +1556,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1455,8 +1600,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1490,8 +1644,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1525,78 +1688,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2006100</v>
+        <v>1584400</v>
       </c>
       <c r="E32" s="3">
-        <v>898700</v>
+        <v>1887500</v>
       </c>
       <c r="F32" s="3">
-        <v>1531500</v>
+        <v>1585500</v>
       </c>
       <c r="G32" s="3">
-        <v>1359900</v>
+        <v>1963200</v>
       </c>
       <c r="H32" s="3">
+        <v>879500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1498800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1404300</v>
+      </c>
+      <c r="K32" s="3">
         <v>3248200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>1611200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>1695300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>1536500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>2892300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>1889800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>769700</v>
+        <v>1345100</v>
       </c>
       <c r="E33" s="3">
-        <v>1878200</v>
+        <v>1402100</v>
       </c>
       <c r="F33" s="3">
-        <v>1468700</v>
+        <v>1279200</v>
       </c>
       <c r="G33" s="3">
-        <v>1503500</v>
+        <v>753200</v>
       </c>
       <c r="H33" s="3">
+        <v>1838100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1437300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1414200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-259200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1282400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>1242000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>1407400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>490700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1132700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,83 +1820,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>769700</v>
+        <v>1345100</v>
       </c>
       <c r="E35" s="3">
-        <v>1878200</v>
+        <v>1402100</v>
       </c>
       <c r="F35" s="3">
-        <v>1468700</v>
+        <v>1279200</v>
       </c>
       <c r="G35" s="3">
-        <v>1503500</v>
+        <v>753200</v>
       </c>
       <c r="H35" s="3">
+        <v>1838100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1437300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1414200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-259200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1282400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>1242000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>1407400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>490700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1132700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1937,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,78 +1955,99 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79999000</v>
+        <v>66525600</v>
       </c>
       <c r="E41" s="3">
-        <v>67493300</v>
+        <v>66962600</v>
       </c>
       <c r="F41" s="3">
-        <v>61003700</v>
+        <v>72298900</v>
       </c>
       <c r="G41" s="3">
-        <v>68349400</v>
+        <v>78288500</v>
       </c>
       <c r="H41" s="3">
+        <v>66050200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>59699400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>66888000</v>
+      </c>
+      <c r="K41" s="3">
         <v>85541600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>108471700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>81679800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>110202000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>94252200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>83864000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>174799300</v>
+        <v>202878600</v>
       </c>
       <c r="E42" s="3">
-        <v>180865900</v>
+        <v>195618600</v>
       </c>
       <c r="F42" s="3">
-        <v>183029100</v>
+        <v>178474400</v>
       </c>
       <c r="G42" s="3">
-        <v>182286300</v>
+        <v>171061800</v>
       </c>
       <c r="H42" s="3">
+        <v>176998700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>179115600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>178388800</v>
+      </c>
+      <c r="K42" s="3">
         <v>156365000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>171839500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>174756700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>195521500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>196691800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>204585700</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1840,8 +2081,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,8 +2125,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1910,8 +2169,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1945,113 +2213,149 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1770500</v>
+        <v>1701900</v>
       </c>
       <c r="E47" s="3">
-        <v>1090600</v>
+        <v>1798500</v>
       </c>
       <c r="F47" s="3">
-        <v>1649300</v>
+        <v>1742500</v>
       </c>
       <c r="G47" s="3">
-        <v>1565200</v>
+        <v>1732600</v>
       </c>
       <c r="H47" s="3">
+        <v>1067300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1614100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1531700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1781700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>1777200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>1281300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>1352200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>898000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>881500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8110900</v>
+        <v>11208400</v>
       </c>
       <c r="E48" s="3">
-        <v>7502700</v>
+        <v>11311600</v>
       </c>
       <c r="F48" s="3">
-        <v>7557700</v>
+        <v>11429100</v>
       </c>
       <c r="G48" s="3">
-        <v>7795600</v>
+        <v>7937400</v>
       </c>
       <c r="H48" s="3">
+        <v>7342300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>7396100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7628900</v>
+      </c>
+      <c r="K48" s="3">
         <v>8068200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>8932200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>9212700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>10493900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>10496200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>11116000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9328200</v>
+        <v>9341800</v>
       </c>
       <c r="E49" s="3">
-        <v>9214900</v>
+        <v>9071700</v>
       </c>
       <c r="F49" s="3">
-        <v>9394400</v>
+        <v>9204500</v>
       </c>
       <c r="G49" s="3">
-        <v>9199200</v>
+        <v>9128800</v>
       </c>
       <c r="H49" s="3">
+        <v>9017900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>9193600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>9002500</v>
+      </c>
+      <c r="K49" s="3">
         <v>9496500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>9809600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>10150600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>11222800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>11486900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>11154700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2389,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,43 +2433,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19429500</v>
+        <v>20433800</v>
       </c>
       <c r="E52" s="3">
-        <v>23547200</v>
+        <v>18692400</v>
       </c>
       <c r="F52" s="3">
-        <v>43561300</v>
+        <v>18976700</v>
       </c>
       <c r="G52" s="3">
-        <v>43461400</v>
+        <v>19014100</v>
       </c>
       <c r="H52" s="3">
+        <v>23043700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>42629900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>42532100</v>
+      </c>
+      <c r="K52" s="3">
         <v>43284100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>20375300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>21308800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>22578200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>23469200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>22457300</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,43 +2521,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>759238300</v>
+        <v>778500700</v>
       </c>
       <c r="E54" s="3">
-        <v>750594500</v>
+        <v>765993300</v>
       </c>
       <c r="F54" s="3">
-        <v>773760200</v>
+        <v>758937600</v>
       </c>
       <c r="G54" s="3">
-        <v>769057900</v>
+        <v>743004500</v>
       </c>
       <c r="H54" s="3">
+        <v>734545500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>757215900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>752614200</v>
+      </c>
+      <c r="K54" s="3">
         <v>774239300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>775067300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>788118300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>844195900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>859059900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>850574400</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,8 +2589,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2255,66 +2607,78 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6337000</v>
+        <v>5516400</v>
       </c>
       <c r="E57" s="3">
-        <v>5994800</v>
+        <v>6239900</v>
       </c>
       <c r="F57" s="3">
-        <v>5592000</v>
+        <v>6750500</v>
       </c>
       <c r="G57" s="3">
-        <v>6589400</v>
+        <v>6201500</v>
       </c>
       <c r="H57" s="3">
+        <v>5866600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5472400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6448600</v>
+      </c>
+      <c r="K57" s="3">
         <v>6241600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>6019500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>5918500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>8067600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>7665000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>7767100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>7063400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>7705800</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>9211100</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2325,43 +2689,61 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1380000</v>
+        <v>557800</v>
       </c>
       <c r="E59" s="3">
-        <v>1008700</v>
+        <v>1179300</v>
       </c>
       <c r="F59" s="3">
-        <v>1602200</v>
+        <v>1717300</v>
       </c>
       <c r="G59" s="3">
-        <v>1455200</v>
+        <v>1350500</v>
       </c>
       <c r="H59" s="3">
+        <v>987100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1567900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1424100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1249900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1727900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1125400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>1869900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>2114000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>1130400</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2395,78 +2777,105 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71773700</v>
+        <v>69529800</v>
       </c>
       <c r="E61" s="3">
-        <v>69588100</v>
+        <v>73211300</v>
       </c>
       <c r="F61" s="3">
-        <v>69955000</v>
+        <v>68476800</v>
       </c>
       <c r="G61" s="3">
-        <v>68291000</v>
+        <v>70239100</v>
       </c>
       <c r="H61" s="3">
+        <v>68100200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>68459200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>66830900</v>
+      </c>
+      <c r="K61" s="3">
         <v>71712000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>77737100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>77992900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>85500300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>89649700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>89924400</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9893700</v>
+        <v>11232500</v>
       </c>
       <c r="E62" s="3">
-        <v>10102400</v>
+        <v>9831500</v>
       </c>
       <c r="F62" s="3">
-        <v>29307500</v>
+        <v>9436200</v>
       </c>
       <c r="G62" s="3">
-        <v>29705800</v>
+        <v>9682200</v>
       </c>
       <c r="H62" s="3">
+        <v>9886400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>28680900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>29070600</v>
+      </c>
+      <c r="K62" s="3">
         <v>30134400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>11784300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>12393500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>14271200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>14629200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>14387400</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2500,8 +2909,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +2953,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2570,43 +2997,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>706381300</v>
+        <v>722799100</v>
       </c>
       <c r="E66" s="3">
-        <v>698986300</v>
+        <v>712355000</v>
       </c>
       <c r="F66" s="3">
-        <v>722428000</v>
+        <v>706421400</v>
       </c>
       <c r="G66" s="3">
-        <v>718309200</v>
+        <v>691277700</v>
       </c>
       <c r="H66" s="3">
+        <v>684040800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>706981300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>702950600</v>
+      </c>
+      <c r="K66" s="3">
         <v>722241800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>721962400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>734451300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>787801400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>803463600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>794739800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,8 +3065,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2655,8 +3103,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2690,8 +3147,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2725,8 +3191,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,43 +3235,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31734400</v>
+        <v>32867500</v>
       </c>
       <c r="E72" s="3">
-        <v>34040100</v>
+        <v>31596000</v>
       </c>
       <c r="F72" s="3">
-        <v>32228000</v>
+        <v>30101700</v>
       </c>
       <c r="G72" s="3">
-        <v>30710000</v>
+        <v>31055800</v>
       </c>
       <c r="H72" s="3">
+        <v>33312200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>31539000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>30053400</v>
+      </c>
+      <c r="K72" s="3">
         <v>30401400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>32527600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>31246300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>31554400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>31805600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>31054300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,8 +3323,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,8 +3367,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2900,43 +3411,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52856900</v>
+        <v>55701500</v>
       </c>
       <c r="E76" s="3">
-        <v>51608200</v>
+        <v>53638400</v>
       </c>
       <c r="F76" s="3">
-        <v>51332200</v>
+        <v>52516200</v>
       </c>
       <c r="G76" s="3">
-        <v>50748700</v>
+        <v>51726800</v>
       </c>
       <c r="H76" s="3">
+        <v>50504700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>50234600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>49663600</v>
+      </c>
+      <c r="K76" s="3">
         <v>51997500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>53104900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>53667000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>56394500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>55596300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>55834600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,83 +3499,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>769700</v>
+        <v>1345100</v>
       </c>
       <c r="E81" s="3">
-        <v>1878200</v>
+        <v>1402100</v>
       </c>
       <c r="F81" s="3">
-        <v>1468700</v>
+        <v>1279200</v>
       </c>
       <c r="G81" s="3">
-        <v>1503500</v>
+        <v>753200</v>
       </c>
       <c r="H81" s="3">
+        <v>1838100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1437300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1414200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-259200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1282400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>1242000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>1407400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>490700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1132700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3060,43 +3616,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>342200</v>
+        <v>442500</v>
       </c>
       <c r="E83" s="3">
-        <v>333200</v>
+        <v>437000</v>
       </c>
       <c r="F83" s="3">
-        <v>335500</v>
+        <v>430400</v>
       </c>
       <c r="G83" s="3">
-        <v>344500</v>
+        <v>334900</v>
       </c>
       <c r="H83" s="3">
+        <v>326100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>328300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>337100</v>
+      </c>
+      <c r="K83" s="3">
         <v>370300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>387100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>401700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>415500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>428400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>436700</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,8 +3698,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3742,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3786,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3235,8 +3830,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3270,43 +3874,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9732100</v>
+        <v>-1406500</v>
       </c>
       <c r="E89" s="3">
-        <v>6201200</v>
+        <v>-4387600</v>
       </c>
       <c r="F89" s="3">
-        <v>-7413000</v>
+        <v>-10883400</v>
       </c>
       <c r="G89" s="3">
-        <v>1200500</v>
+        <v>9524100</v>
       </c>
       <c r="H89" s="3">
+        <v>6068600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-7440000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1360400</v>
+      </c>
+      <c r="K89" s="3">
         <v>5143200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-924500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>5509000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-7763600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>9182700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>4989900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3320,43 +3942,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>-462300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-635700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-86400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-187400</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-183400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-166100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-517200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-126800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-112700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-1055300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-819300</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,8 +4024,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3425,43 +4068,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4158100</v>
+        <v>-416100</v>
       </c>
       <c r="E94" s="3">
-        <v>4371300</v>
+        <v>-480900</v>
       </c>
       <c r="F94" s="3">
-        <v>-141400</v>
+        <v>-175700</v>
       </c>
       <c r="G94" s="3">
-        <v>44900</v>
+        <v>4069200</v>
       </c>
       <c r="H94" s="3">
+        <v>4277800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-138300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K94" s="3">
         <v>2040900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-405000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>1308200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>326300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>1783000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-441400</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,43 +4136,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1110800</v>
+        <v>-107600</v>
       </c>
       <c r="E96" s="3">
-        <v>138000</v>
+        <v>-1277000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1255500</v>
+        <v>-119700</v>
       </c>
       <c r="G96" s="3">
-        <v>-135800</v>
+        <v>-1087000</v>
       </c>
       <c r="H96" s="3">
+        <v>135100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1228700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-796600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-122300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-280500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-738300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-197200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-726600</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3545,8 +4218,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,8 +4262,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3615,109 +4306,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-958200</v>
+        <v>752100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2846500</v>
+        <v>-2868000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1869200</v>
+        <v>389800</v>
       </c>
       <c r="G100" s="3">
-        <v>-39300</v>
+        <v>-937700</v>
       </c>
       <c r="H100" s="3">
+        <v>-2785600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1829300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="K100" s="3">
         <v>664200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>541900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-302900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-1060000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-757100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-611600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2705100</v>
+        <v>-676400</v>
       </c>
       <c r="E101" s="3">
-        <v>-3278500</v>
+        <v>513900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1243200</v>
+        <v>2692300</v>
       </c>
       <c r="G101" s="3">
-        <v>-986200</v>
+        <v>2647300</v>
       </c>
       <c r="H101" s="3">
+        <v>-3208400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1216600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-965100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2674800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-1146700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-1003100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>39900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-1322900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-1428500</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15637200</v>
+        <v>-1746900</v>
       </c>
       <c r="E102" s="3">
-        <v>4447600</v>
+        <v>-7222600</v>
       </c>
       <c r="F102" s="3">
-        <v>-10666800</v>
+        <v>-7977000</v>
       </c>
       <c r="G102" s="3">
-        <v>219900</v>
+        <v>15302800</v>
       </c>
       <c r="H102" s="3">
+        <v>4352500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-10438700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K102" s="3">
         <v>5173500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-1008700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>4585600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-8457300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>8885700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>2508400</v>
       </c>
     </row>
